--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
   <si>
     <t>URL</t>
   </si>
@@ -138,6 +139,9 @@
   </si>
   <si>
     <t>fe@bitaconsulting.co.in</t>
+  </si>
+  <si>
+    <t>mgmt@bita.com</t>
   </si>
   <si>
     <t>auditor@abcd.com</t>
@@ -178,12 +182,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,16 +224,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -240,7 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +268,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -310,13 +330,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -338,27 +351,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +587,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,15 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -652,24 +656,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,139 +688,139 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,7 +1157,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1167,7 +1165,7 @@
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1175,7 +1173,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1329,15 +1327,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1365,7 +1363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1378,7 +1376,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1386,8 +1384,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1402,6 +1400,55 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="amrutadesai@gmail.com"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B2" r:id="rId2" display="mgmt@bita.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1427,7 +1474,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1435,7 +1482,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1443,7 +1490,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1484,13 +1531,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="74.4285714285714" customWidth="1"/>
@@ -1500,7 +1547,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1508,7 +1555,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1516,14 +1563,18 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B2" r:id="rId2" display="cfo@bitaconsulting.co.in" tooltip="mailto:cfo@bitaconsulting.co.in"/>
+    <hyperlink ref="B3" r:id="rId2" display="o8K!^&amp;PmkO$z"/>
+    <hyperlink ref="B2" r:id="rId3" display="cfo@bitaconsulting.co.in"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1549,7 +1600,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1557,7 +1608,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1565,7 +1616,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1583,13 +1634,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
   </cols>
@@ -1598,7 +1649,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1606,7 +1657,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1614,14 +1665,20 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="fe@bitaconsulting.co.in" tooltip="mailto:fe@bitaconsulting.co.in"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B5" r:id="rId3" display="mgmt@bita.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1647,7 +1704,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1655,24 +1712,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1762,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1713,24 +1770,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1820,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1771,8 +1828,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1785,10 +1842,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1877,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1828,24 +1885,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1533,8 +1533,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1690,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1734,7 +1734,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="auditor@abcd.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="auditor@abcd.com" tooltip="mailto:auditor@abcd.com"/>
     <hyperlink ref="B1" r:id="rId2" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B3" r:id="rId3" display="admin@123"/>
   </hyperlinks>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>URL</t>
   </si>
@@ -175,6 +176,9 @@
   </si>
   <si>
     <t>amrutadesai@gmail.com</t>
+  </si>
+  <si>
+    <t>companyadmin@avantis.info</t>
   </si>
 </sst>
 </file>
@@ -182,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -245,7 +249,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,16 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,14 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -321,6 +318,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,33 +356,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -373,13 +377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +419,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,49 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,66 +551,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -536,24 +558,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +568,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,21 +620,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -630,17 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -658,157 +660,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,7 +1416,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1425,7 +1429,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1437,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1441,7 +1445,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1449,6 +1453,56 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
     <hyperlink ref="B2" r:id="rId2" display="mgmt@bita.com"/>
+    <hyperlink ref="B1" r:id="rId3" display="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="81.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="companyadmin@avantis.info"/>
+    <hyperlink ref="B3" r:id="rId2" display="admin@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1563,12 +1617,12 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1670,7 +1724,7 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1690,8 +1744,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1749,7 +1803,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1864,7 +1918,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
